--- a/Sprint 1/Sprint_Backlog/SprintBacklog.xlsx
+++ b/Sprint 1/Sprint_Backlog/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F66AAA-4709-42A0-BD75-625AF057AD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F76FE-DE24-48BA-A12A-E3ED1B695465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,14 +438,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>33575</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -474,8 +474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4898572"/>
-          <a:ext cx="11361964" cy="6735092"/>
+          <a:off x="0" y="4781177"/>
+          <a:ext cx="11333283" cy="6682397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="I36" sqref="I25:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1671,7 +1671,6 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
@@ -1682,7 +1681,6 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
@@ -1693,7 +1691,6 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -1704,7 +1701,6 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1715,7 +1711,6 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -1726,7 +1721,6 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -1737,7 +1731,6 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -1748,9 +1741,8 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1759,9 +1751,8 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1770,9 +1761,8 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1781,9 +1771,8 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1792,50 +1781,49 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>26</v>
       </c>

--- a/Sprint 1/Sprint_Backlog/SprintBacklog.xlsx
+++ b/Sprint 1/Sprint_Backlog/SprintBacklog.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\GitHub\Team17\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F76FE-DE24-48BA-A12A-E3ED1B695465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332805B-9431-461D-8DBB-B2F810D04CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="TaskName">Sheet1!$A:$A</definedName>
   </definedNames>
@@ -26,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -267,13 +262,19 @@
   </si>
   <si>
     <t>Searchbar function for database table</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -291,12 +292,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -308,15 +303,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +321,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -384,30 +366,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,16 +412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1234109</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>70927</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -461,7 +437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -474,8 +450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4781177"/>
-          <a:ext cx="11333283" cy="6682397"/>
+          <a:off x="12531587" y="335528"/>
+          <a:ext cx="4389783" cy="3457908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,276 +461,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Gantt Chart w % Complete"/>
-      <sheetName val="Basic Gantt Chart"/>
-      <sheetName val="Manual Chart"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Write Landing Page Copy</v>
-          </cell>
-          <cell r="D9">
-            <v>5</v>
-          </cell>
-          <cell r="G9">
-            <v>4</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Approve Page Copy</v>
-          </cell>
-          <cell r="D10">
-            <v>8</v>
-          </cell>
-          <cell r="G10">
-            <v>3.2</v>
-          </cell>
-          <cell r="H10">
-            <v>0.79999999999999982</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Review Landing Page Design</v>
-          </cell>
-          <cell r="D11">
-            <v>11</v>
-          </cell>
-          <cell r="G11">
-            <v>3.5999999999999996</v>
-          </cell>
-          <cell r="H11">
-            <v>2.4000000000000004</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Build Landing Page</v>
-          </cell>
-          <cell r="D12">
-            <v>14</v>
-          </cell>
-          <cell r="G12">
-            <v>2.4000000000000004</v>
-          </cell>
-          <cell r="H12">
-            <v>3.5999999999999996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Code Review Landing Page</v>
-          </cell>
-          <cell r="D13">
-            <v>17</v>
-          </cell>
-          <cell r="G13">
-            <v>1.4000000000000001</v>
-          </cell>
-          <cell r="H13">
-            <v>5.6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Write Promotional Email</v>
-          </cell>
-          <cell r="D15">
-            <v>9</v>
-          </cell>
-          <cell r="G15">
-            <v>4</v>
-          </cell>
-          <cell r="H15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Design Promotional Email</v>
-          </cell>
-          <cell r="D16">
-            <v>12</v>
-          </cell>
-          <cell r="G16">
-            <v>6.4</v>
-          </cell>
-          <cell r="H16">
-            <v>1.5999999999999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Send Promotional Email</v>
-          </cell>
-          <cell r="D17">
-            <v>17</v>
-          </cell>
-          <cell r="G17">
-            <v>1.7999999999999998</v>
-          </cell>
-          <cell r="H17">
-            <v>1.2000000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Analyze Campaign Results</v>
-          </cell>
-          <cell r="D18">
-            <v>22</v>
-          </cell>
-          <cell r="G18">
-            <v>2</v>
-          </cell>
-          <cell r="H18">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Plan Agenda for Meeting</v>
-          </cell>
-          <cell r="D20">
-            <v>15</v>
-          </cell>
-          <cell r="G20">
-            <v>5</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Reserve Room</v>
-          </cell>
-          <cell r="D21">
-            <v>22</v>
-          </cell>
-          <cell r="G21">
-            <v>1.6</v>
-          </cell>
-          <cell r="H21">
-            <v>0.39999999999999991</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Finalize Presentation</v>
-          </cell>
-          <cell r="D22">
-            <v>22</v>
-          </cell>
-          <cell r="G22">
-            <v>3</v>
-          </cell>
-          <cell r="H22">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Approve Presentation</v>
-          </cell>
-          <cell r="D23">
-            <v>26</v>
-          </cell>
-          <cell r="G23">
-            <v>1.6</v>
-          </cell>
-          <cell r="H23">
-            <v>2.4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Create Invitations</v>
-          </cell>
-          <cell r="D24">
-            <v>22</v>
-          </cell>
-          <cell r="G24">
-            <v>0.8</v>
-          </cell>
-          <cell r="H24">
-            <v>3.2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Rewrite Online Calculator</v>
-          </cell>
-          <cell r="D26">
-            <v>15</v>
-          </cell>
-          <cell r="G26">
-            <v>10</v>
-          </cell>
-          <cell r="H26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Code Review Calculator</v>
-          </cell>
-          <cell r="D27">
-            <v>25</v>
-          </cell>
-          <cell r="G27">
-            <v>4.8000000000000007</v>
-          </cell>
-          <cell r="H27">
-            <v>1.1999999999999993</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Update Messaging</v>
-          </cell>
-          <cell r="D28">
-            <v>24</v>
-          </cell>
-          <cell r="G28">
-            <v>4.2</v>
-          </cell>
-          <cell r="H28">
-            <v>2.8</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Publish Calculator</v>
-          </cell>
-          <cell r="D29">
-            <v>30</v>
-          </cell>
-          <cell r="G29">
-            <v>0</v>
-          </cell>
-          <cell r="H29">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="I36" sqref="I25:I36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -976,7 +682,7 @@
     <col min="10" max="10" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +715,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1036,12 +742,15 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1065,9 +774,12 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1094,12 +806,15 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1123,12 +838,15 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1152,12 +870,15 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1181,9 +902,12 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1210,9 +934,12 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1227,7 +954,7 @@
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>43859</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1239,9 +966,12 @@
       <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="J9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1268,9 +998,12 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="J10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1297,9 +1030,12 @@
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="J11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1326,9 +1062,12 @@
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="J12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1352,12 +1091,15 @@
       <c r="H13" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1375,22 +1117,24 @@
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
+      <c r="G14" s="10">
+        <v>43860</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1405,25 +1149,27 @@
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>43860</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="J15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2">
@@ -1432,21 +1178,24 @@
       <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>43859</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>43860</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="J16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1461,21 +1210,24 @@
       <c r="E17" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>43858</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="10">
+        <v>43861</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1490,73 +1242,94 @@
       <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>43859</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="G18" s="10">
+        <v>43861</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>43860</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="G19" s="10">
+        <v>43861</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>7</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>43859</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="G20" s="10">
+        <v>43861</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="2">
@@ -1565,17 +1338,20 @@
       <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>43860</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="J21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1599,13 +1375,13 @@
       <c r="H22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1629,12 +1405,12 @@
       <c r="H23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1658,241 +1434,421 @@
       <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
